--- a/dataFiles/ElderCareProgram/ElderCare-CommunityGroups.xlsx
+++ b/dataFiles/ElderCareProgram/ElderCare-CommunityGroups.xlsx
@@ -78,7 +78,7 @@
     <t>Groups are valid</t>
   </si>
   <si>
-    <t>prabhaautozvho6459@mailinator.com</t>
+    <t>prabhaautoqhkf6362@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
